--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/4_Ağrı_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/4_Ağrı_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C7D3A4A-FCED-4E99-99CB-FB805BEC5D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEFCAC06-95A0-4021-80EC-79A1C1AF112D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{126A6A1A-3002-48FD-AAC2-CCE39F441E68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{6554B30D-65F8-4CF2-A938-60CAC7962412}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -909,15 +909,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{981C61DC-74D9-4069-BD72-EF09D159A5D8}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{2A387283-786F-44DF-AD32-1F49F694067B}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{948B1518-BDFC-4C3F-B8EF-37D76388CF99}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{17E3A714-1E5B-4AFC-A6AD-CF64ED57709F}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{CA7EE0ED-0F0E-4BC3-B855-84D2389ECB62}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{517C07CB-5754-4592-A03A-0A736BC2F196}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{7CD45506-D631-41C6-9AD0-68AE26225DFF}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{F26C87C8-8776-4064-A60A-A1DCE9CE5750}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{96B7D89B-0E54-4ACF-B7D2-87AD6F8D0026}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{21C5C7A7-285D-40DC-8F71-1A4114671772}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{14939137-FFFA-44BA-AFCA-0DD78A71A52E}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{2B08540A-5C9E-404F-AA8C-C1174A308BB6}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{EEA4A3DB-0691-458A-8B33-36471829EC6A}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{845DB15E-4A67-4DF9-9433-41BBBF9CFBD1}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{DC97CA66-C08B-436D-800B-CAF915929DAC}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{4A2CEADA-C486-4919-A90E-8D233B9AD228}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{1C945C56-54CC-474E-BB22-B62A50F65D59}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{BC86F23D-8E7A-4FEE-A340-98D1788B0451}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1287,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A776A41-70F4-4C78-B146-9CB471AB8D18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED60FBFB-D83F-4D15-9F45-37E91EDDCEBD}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2569,7 +2569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D686A45F-FEA0-42D2-8789-4C9BF56C49A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08714FD1-1C3B-4A10-A481-CE6D2FA9C615}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3846,7 +3846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604E4ECD-C715-4D12-A8A8-E161C1213658}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818A5C97-A6ED-4914-9C08-B694AB1D2E10}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5123,7 +5123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E0FD5A-17EE-4EB7-85F0-42BBA1EE900F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9357FA6B-6D1C-4A84-9389-CC5F0E631ADE}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6394,7 +6394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D81FE34-844E-4212-A906-6D03C79D086E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E8A354-5868-450C-A005-3BEA4B42C29C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7674,7 +7674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5576C5-553A-486D-8F65-4FEDDCDFA5C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670D67E8-5A59-4266-9834-997610ADCF4E}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -8953,7 +8953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6063677F-DCDD-436E-AEE0-06DAD77FE67B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C634C72-C3A6-40F8-885A-80B82C8B85ED}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -10232,7 +10232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55232DD-4E5C-4DCC-AAA7-A12597733DFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861F8926-142D-4D9D-8CF7-A23C1991D417}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -11509,7 +11509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6CCEDA-460A-46F6-BBCA-EFD558A1BD41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957174E1-C259-4A6B-A286-9A37976890E2}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -12786,7 +12786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9E85DA-6425-49DF-81A9-91B5E9AA2A44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAB14E0-35FB-4942-BACA-F55696478DB9}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -14063,7 +14063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181F1275-F951-4FE1-A84D-51C9E4D04B4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BFD043-8D9D-4B83-80BE-2C8B13A00A67}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15342,7 +15342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E1A916-BBA5-45F8-8611-6DE474285060}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53350565-C33E-461D-A4E5-E0EEA36F5B32}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
